--- a/PGT noise values.xlsx
+++ b/PGT noise values.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Jonathan\School\3de hogeschool\POP\2223pop-jonathanvercammen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E246D05F-B0FF-4910-AA65-73FCC6DE6A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1020" yWindow="3165" windowWidth="17190" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ContinentalnessMap" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,11 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>noisewaarde</t>
+  </si>
+  <si>
+    <t>ContinentalnessMap</t>
+  </si>
+  <si>
+    <t>continentalness</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +104,968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4675324675324667E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.91405684679025512"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ContinentalnessMap!$C$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ContinentalnessMap!$C$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03D0-4F7D-AEDE-BCAD3BB67D83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456655032"/>
+        <c:axId val="456655360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="456655032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456655360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456655360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456655032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EE04DF-49DF-9018-9CA9-638E214704AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1330,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A7:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-0.5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>1.7</v>
+      </c>
+      <c r="L8">
+        <v>1.8</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-100</v>
+      </c>
+      <c r="D9">
+        <v>-80</v>
+      </c>
+      <c r="E9">
+        <v>-20</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>90</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PGT noise values.xlsx
+++ b/PGT noise values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Jonathan\School\3de hogeschool\POP\2223pop-jonathanvercammen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E246D05F-B0FF-4910-AA65-73FCC6DE6A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E533FBEE-4566-4906-891A-9AA3731B4C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3165" windowWidth="17190" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="4425" windowWidth="17880" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContinentalnessMap" sheetId="1" r:id="rId1"/>
@@ -121,6 +121,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Continentalness</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1032,15 +1057,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1334,7 +1359,7 @@
   <dimension ref="A7:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
